--- a/68 fotoefekt/meritve.xlsx
+++ b/68 fotoefekt/meritve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\archW\Desktop\faks\fizikalni-praktikum\68 fotoefekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CB7170-DE45-4196-9668-BC8D42396BA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F58679-2ECF-47C2-AFFE-831CB0C9213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="13040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>lambda</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Ai</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>e0*Um</t>
   </si>
 </sst>
 </file>
@@ -375,7 +381,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -597,7 +602,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -3419,7 +3424,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>planck</c:v>
+            <c:v>h</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3491,64 +3496,50 @@
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$74:$B$78</c:f>
+              <c:f>Sheet1!$C$88:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-1.746</c:v>
+                  <c:v>821349200000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.387</c:v>
+                  <c:v>740228291358024.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.246</c:v>
+                  <c:v>687597380733945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.75800000000000001</c:v>
+                  <c:v>549070435897435.88</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.61099999999999999</c:v>
+                  <c:v>519570984402079.69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$74:$C$78</c:f>
+              <c:f>Sheet1!$B$88:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>-3.4058586725353845E-34</c:v>
+                  <c:v>-2.7973992960000003E-19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3.002071304142014E-34</c:v>
+                  <c:v>-2.2222181119999999E-19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.9033142823626336E-34</c:v>
+                  <c:v>-1.9963112960000002E-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.2118280799712446E-34</c:v>
+                  <c:v>-1.214449408E-19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.8841112482956463E-34</c:v>
+                  <c:v>-9.7892953599999996E-20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,7 +3547,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB09-48ED-B84E-53BA50865DED}"/>
+              <c16:uniqueId val="{00000002-AAFB-47A3-8444-F20EB1C3ABEA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3613,7 +3604,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>U[V]</a:t>
+                  <a:t>V[Hz]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3650,12 +3641,15 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
@@ -3727,7 +3721,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>h[Js]</a:t>
+                  <a:t>eU[J]</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7977,22 +7971,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>4233</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>12699</xdr:rowOff>
+      <xdr:colOff>71966</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E72F9198-1958-4422-AA24-5247463B08B6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF9D8FD5-1FAD-4390-B3C1-CC21071FC409}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8280,13 +8274,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="2" max="2" width="11.76171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.76171875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.64453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8459,7 +8453,7 @@
         <v>72</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C13:C70" si="1">B16*0.0000000000001</f>
+        <f t="shared" ref="C16:C70" si="1">B16*0.0000000000001</f>
         <v>7.2E-12</v>
       </c>
     </row>
@@ -9084,7 +9078,7 @@
         <v>-3.002071304142014E-34</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" ref="D75:D79" si="2">B75*B$83</f>
+        <f t="shared" ref="D75:D78" si="2">B75*B$83</f>
         <v>-2.2222181119999999E-19</v>
       </c>
     </row>
@@ -9097,7 +9091,7 @@
         <v>-1.246</v>
       </c>
       <c r="C76" s="1">
-        <f t="shared" ref="C75:C78" si="3">A76*B76*B$83/B$84</f>
+        <f t="shared" ref="C76:C77" si="3">A76*B76*B$83/B$84</f>
         <v>-2.9033142823626336E-34</v>
       </c>
       <c r="D76" s="1">
@@ -9177,6 +9171,67 @@
         <f>C84/B84</f>
         <v>1.6678204759907602E-9</v>
       </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B88" s="1">
+        <f>B74*B$83</f>
+        <v>-2.7973992960000003E-19</v>
+      </c>
+      <c r="C88">
+        <f>B$84/A74</f>
+        <v>821349200000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B89" s="1">
+        <f t="shared" ref="B89:B93" si="4">B75*B$83</f>
+        <v>-2.2222181119999999E-19</v>
+      </c>
+      <c r="C89">
+        <f t="shared" ref="C89:C92" si="5">B$84/A75</f>
+        <v>740228291358024.75</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B90" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.9963112960000002E-19</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>687597380733945</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B91" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.214449408E-19</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>549070435897435.88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B92" s="1">
+        <f t="shared" si="4"/>
+        <v>-9.7892953599999996E-20</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>519570984402079.69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="B93" s="1"/>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A108" t="s">
